--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.15652966666666</v>
+        <v>77.07050600000001</v>
       </c>
       <c r="H2">
-        <v>117.469589</v>
+        <v>231.211518</v>
       </c>
       <c r="I2">
-        <v>0.665717606307092</v>
+        <v>0.7967384544746254</v>
       </c>
       <c r="J2">
-        <v>0.6657176063070919</v>
+        <v>0.7967384544746255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.15652966666666</v>
+        <v>77.07050600000001</v>
       </c>
       <c r="N2">
-        <v>117.469589</v>
+        <v>231.211518</v>
       </c>
       <c r="O2">
-        <v>0.665717606307092</v>
+        <v>0.7967384544746254</v>
       </c>
       <c r="P2">
-        <v>0.6657176063070919</v>
+        <v>0.7967384544746255</v>
       </c>
       <c r="Q2">
-        <v>1533.233815536547</v>
+        <v>5939.862895096037</v>
       </c>
       <c r="R2">
-        <v>13799.10433982892</v>
+        <v>53458.76605586433</v>
       </c>
       <c r="S2">
-        <v>0.4431799313472443</v>
+        <v>0.6347921648386148</v>
       </c>
       <c r="T2">
-        <v>0.4431799313472441</v>
+        <v>0.634792164838615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.15652966666666</v>
+        <v>77.07050600000001</v>
       </c>
       <c r="H3">
-        <v>117.469589</v>
+        <v>231.211518</v>
       </c>
       <c r="I3">
-        <v>0.665717606307092</v>
+        <v>0.7967384544746254</v>
       </c>
       <c r="J3">
-        <v>0.6657176063070919</v>
+        <v>0.7967384544746255</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>44.942939</v>
       </c>
       <c r="O3">
-        <v>0.254698309802426</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="P3">
-        <v>0.2546983098024259</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="Q3">
-        <v>586.6031747535633</v>
+        <v>1154.591683285711</v>
       </c>
       <c r="R3">
-        <v>5279.428572782071</v>
+        <v>10391.3251495714</v>
       </c>
       <c r="S3">
-        <v>0.1695571491321332</v>
+        <v>0.1233910221636095</v>
       </c>
       <c r="T3">
-        <v>0.1695571491321331</v>
+        <v>0.1233910221636096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.15652966666666</v>
+        <v>77.07050600000001</v>
       </c>
       <c r="H4">
-        <v>117.469589</v>
+        <v>231.211518</v>
       </c>
       <c r="I4">
-        <v>0.665717606307092</v>
+        <v>0.7967384544746254</v>
       </c>
       <c r="J4">
-        <v>0.6657176063070919</v>
+        <v>0.7967384544746255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>14.043056</v>
       </c>
       <c r="O4">
-        <v>0.07958408389048205</v>
+        <v>0.04839137267175684</v>
       </c>
       <c r="P4">
-        <v>0.07958408389048204</v>
+        <v>0.04839137267175685</v>
       </c>
       <c r="Q4">
-        <v>183.2924462915538</v>
+        <v>360.7684772354454</v>
       </c>
       <c r="R4">
-        <v>1649.632016623984</v>
+        <v>3246.916295119008</v>
       </c>
       <c r="S4">
-        <v>0.05298052582771451</v>
+        <v>0.03855526747240117</v>
       </c>
       <c r="T4">
-        <v>0.05298052582771449</v>
+        <v>0.03855526747240118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>44.942939</v>
       </c>
       <c r="I5">
-        <v>0.254698309802426</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="J5">
-        <v>0.2546983098024259</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.15652966666666</v>
+        <v>77.07050600000001</v>
       </c>
       <c r="N5">
-        <v>117.469589</v>
+        <v>231.211518</v>
       </c>
       <c r="O5">
-        <v>0.665717606307092</v>
+        <v>0.7967384544746254</v>
       </c>
       <c r="P5">
-        <v>0.6657176063070919</v>
+        <v>0.7967384544746255</v>
       </c>
       <c r="Q5">
-        <v>586.6031747535633</v>
+        <v>1154.591683285711</v>
       </c>
       <c r="R5">
-        <v>5279.428572782071</v>
+        <v>10391.3251495714</v>
       </c>
       <c r="S5">
-        <v>0.1695571491321332</v>
+        <v>0.1233910221636095</v>
       </c>
       <c r="T5">
-        <v>0.1695571491321331</v>
+        <v>0.1233910221636096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>44.942939</v>
       </c>
       <c r="I6">
-        <v>0.254698309802426</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="J6">
-        <v>0.2546983098024259</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>44.942939</v>
       </c>
       <c r="O6">
-        <v>0.254698309802426</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="P6">
-        <v>0.2546983098024259</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="Q6">
         <v>224.4297517730801</v>
@@ -815,10 +815,10 @@
         <v>2019.867765957721</v>
       </c>
       <c r="S6">
-        <v>0.06487122901621256</v>
+        <v>0.02398477043970945</v>
       </c>
       <c r="T6">
-        <v>0.06487122901621253</v>
+        <v>0.02398477043970946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>44.942939</v>
       </c>
       <c r="I7">
-        <v>0.254698309802426</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="J7">
-        <v>0.2546983098024259</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,10 +865,10 @@
         <v>14.043056</v>
       </c>
       <c r="O7">
-        <v>0.07958408389048205</v>
+        <v>0.04839137267175684</v>
       </c>
       <c r="P7">
-        <v>0.07958408389048204</v>
+        <v>0.04839137267175685</v>
       </c>
       <c r="Q7">
         <v>70.12624546462044</v>
@@ -877,10 +877,10 @@
         <v>631.1362091815839</v>
       </c>
       <c r="S7">
-        <v>0.02026993165408025</v>
+        <v>0.007494380250298817</v>
       </c>
       <c r="T7">
-        <v>0.02026993165408025</v>
+        <v>0.00749438025029882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,10 +909,10 @@
         <v>14.043056</v>
       </c>
       <c r="I8">
-        <v>0.07958408389048205</v>
+        <v>0.04839137267175684</v>
       </c>
       <c r="J8">
-        <v>0.07958408389048204</v>
+        <v>0.04839137267175685</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.15652966666666</v>
+        <v>77.07050600000001</v>
       </c>
       <c r="N8">
-        <v>117.469589</v>
+        <v>231.211518</v>
       </c>
       <c r="O8">
-        <v>0.665717606307092</v>
+        <v>0.7967384544746254</v>
       </c>
       <c r="P8">
-        <v>0.6657176063070919</v>
+        <v>0.7967384544746255</v>
       </c>
       <c r="Q8">
-        <v>183.2924462915538</v>
+        <v>360.7684772354454</v>
       </c>
       <c r="R8">
-        <v>1649.632016623984</v>
+        <v>3246.916295119008</v>
       </c>
       <c r="S8">
-        <v>0.05298052582771451</v>
+        <v>0.03855526747240117</v>
       </c>
       <c r="T8">
-        <v>0.05298052582771449</v>
+        <v>0.03855526747240118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>14.043056</v>
       </c>
       <c r="I9">
-        <v>0.07958408389048205</v>
+        <v>0.04839137267175684</v>
       </c>
       <c r="J9">
-        <v>0.07958408389048204</v>
+        <v>0.04839137267175685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>44.942939</v>
       </c>
       <c r="O9">
-        <v>0.254698309802426</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="P9">
-        <v>0.2546983098024259</v>
+        <v>0.1548701728536178</v>
       </c>
       <c r="Q9">
         <v>70.12624546462044</v>
@@ -1001,10 +1001,10 @@
         <v>631.1362091815839</v>
       </c>
       <c r="S9">
-        <v>0.02026993165408025</v>
+        <v>0.007494380250298817</v>
       </c>
       <c r="T9">
-        <v>0.02026993165408025</v>
+        <v>0.00749438025029882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>14.043056</v>
       </c>
       <c r="I10">
-        <v>0.07958408389048205</v>
+        <v>0.04839137267175684</v>
       </c>
       <c r="J10">
-        <v>0.07958408389048204</v>
+        <v>0.04839137267175685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>14.043056</v>
       </c>
       <c r="O10">
-        <v>0.07958408389048205</v>
+        <v>0.04839137267175684</v>
       </c>
       <c r="P10">
-        <v>0.07958408389048204</v>
+        <v>0.04839137267175685</v>
       </c>
       <c r="Q10">
         <v>21.91193575768178</v>
@@ -1063,10 +1063,10 @@
         <v>197.207421819136</v>
       </c>
       <c r="S10">
-        <v>0.006333626408687285</v>
+        <v>0.002341724949056855</v>
       </c>
       <c r="T10">
-        <v>0.006333626408687282</v>
+        <v>0.002341724949056856</v>
       </c>
     </row>
   </sheetData>
